--- a/근태관리 프로그램/会議録.xlsx
+++ b/근태관리 프로그램/会議録.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jelly\Desktop\simile\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Attendance\근태관리 프로그램\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD72413A-2116-4420-A6B0-4C97B955AFC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A012D579-8847-4F01-9BCF-6C341262AB14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{697A235D-AEE7-4C00-8EA7-E983785EB296}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{697A235D-AEE7-4C00-8EA7-E983785EB296}"/>
   </bookViews>
   <sheets>
     <sheet name="9月19日" sheetId="7" r:id="rId1"/>
+    <sheet name="10月8日" sheetId="8" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="年域">[1]勤務表!$T$15:$T$40</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>SIMILE　新入社員プロジェクト</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,12 +240,68 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>１０ 月　８ 日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>＊流れ図を参考してプロジェクトをすること
+　流れ図を見ると、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ ゴシック"/>
+      </rPr>
+      <t xml:space="preserve">
+　こうしたmodelが二つありますが
+　その後、例を見ると勤怠管理明細の
+  controller, service, mapperしかなかったです。
+　勤怠管理のやつも、別に作ればいいんですか？ 
+　そしてmapperを見ると、resultTypeに勤怠管理明細TBLて
+　ありますが、私が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>把握</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>してるのはこれがentityだっと思います。もし間違えたら教えてください。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +380,20 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="ＭＳ ゴシック"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -464,7 +535,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -542,6 +613,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -557,6 +660,111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>519953</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19539</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC58FE7E-F4CD-43D9-A7B1-B7FCBA182B80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="1801906"/>
+          <a:ext cx="6705600" cy="3444057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>349624</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>197223</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93C30BC3-5B9C-43DF-B58F-316EB46A189E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="806824" y="6230470"/>
+          <a:ext cx="10300447" cy="3451412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1070,13 +1278,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB84B2A-40A9-4209-A3DC-AD14C979BA77}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:Q35"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="17.5" thickBot="1">
+    <row r="1" spans="1:17" ht="18" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1089,7 +1297,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="19.5" thickBot="1">
+    <row r="2" spans="1:17" ht="19.8" thickBot="1">
       <c r="A2" s="2"/>
       <c r="F2" s="13" t="s">
         <v>0</v>
@@ -1102,7 +1310,7 @@
       <c r="L2" s="14"/>
       <c r="M2" s="15"/>
     </row>
-    <row r="3" spans="1:17" ht="17.5" thickBot="1">
+    <row r="3" spans="1:17" ht="18" thickBot="1">
       <c r="A3" s="2"/>
       <c r="F3" s="16" t="s">
         <v>2</v>
@@ -1115,7 +1323,7 @@
       <c r="L3" s="17"/>
       <c r="M3" s="18"/>
     </row>
-    <row r="4" spans="1:17" ht="17.5" thickBot="1">
+    <row r="4" spans="1:17" ht="18" thickBot="1">
       <c r="A4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1126,7 +1334,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:17" ht="17.5" thickBot="1">
+    <row r="5" spans="1:17" ht="18" thickBot="1">
       <c r="A5" s="2"/>
       <c r="F5" s="19" t="s">
         <v>1</v>
@@ -1141,7 +1349,7 @@
       <c r="L5" s="20"/>
       <c r="M5" s="21"/>
     </row>
-    <row r="6" spans="1:17" ht="17.5" thickBot="1">
+    <row r="6" spans="1:17" ht="18" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1688,7 +1896,7 @@
       <c r="P34" s="8"/>
       <c r="Q34" s="9"/>
     </row>
-    <row r="35" spans="1:17" ht="17.5" thickBot="1">
+    <row r="35" spans="1:17" ht="18" thickBot="1">
       <c r="A35" s="2"/>
       <c r="B35" s="10"/>
       <c r="C35" s="11"/>
@@ -1808,4 +2016,1020 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C97C393-5BF6-493A-B31E-E1BC024A2E15}">
+  <dimension ref="A1:Q55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" thickBot="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" ht="19.8" thickBot="1">
+      <c r="A2" s="2"/>
+      <c r="F2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" thickBot="1">
+      <c r="A3" s="2"/>
+      <c r="F3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
+    </row>
+    <row r="4" spans="1:17" ht="18" thickBot="1">
+      <c r="A4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" ht="18" thickBot="1">
+      <c r="A5" s="2"/>
+      <c r="F5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="21"/>
+    </row>
+    <row r="6" spans="1:17" ht="18" thickBot="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" ht="17.399999999999999" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="23"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="2"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="26"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="26"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="26"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="2"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="26"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="2"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="26"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="2"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="26"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="2"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="26"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="2"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="26"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="2"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="26"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="2"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="26"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="2"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="26"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="2"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="26"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="2"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="26"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="2"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="26"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="2"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="26"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="2"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="26"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="2"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="26"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="2"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="26"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="2"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="26"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="2"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="26"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="2"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="26"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="2"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="26"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="2"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="26"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="2"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="26"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="2"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="26"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="2"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="26"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="2"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="26"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="2"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="26"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="26"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="26"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="26"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="26"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="26"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="B41" s="24"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="26"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="26"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="26"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="26"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="26"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="B46" s="24"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="26"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="26"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="B48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="26"/>
+    </row>
+    <row r="49" spans="2:17">
+      <c r="B49" s="24"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="26"/>
+    </row>
+    <row r="50" spans="2:17">
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="26"/>
+    </row>
+    <row r="51" spans="2:17">
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="26"/>
+    </row>
+    <row r="52" spans="2:17">
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="26"/>
+    </row>
+    <row r="53" spans="2:17">
+      <c r="B53" s="24"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="26"/>
+    </row>
+    <row r="54" spans="2:17">
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="26"/>
+    </row>
+    <row r="55" spans="2:17" ht="18" thickBot="1">
+      <c r="B55" s="27"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B7:Q55"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:M5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>